--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2088584491996504</v>
+        <v>0.208884759196603</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.282344417435571</v>
+        <v>0.2823868412390541</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3146167001069746</v>
+        <v>0.314663811617325</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3837770338213592</v>
+        <v>0.3838960162792354</v>
       </c>
     </row>
     <row r="14">
@@ -642,22 +642,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4663795455676059</v>
+        <v>0.4666623480280963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.08892548345040661</v>
+        <v>0.3716292420014026</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.134174907430617</v>
+        <v>0.08892548345040661</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2304908898377627</v>
+        <v>0.134174907430617</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3058085859713558</v>
+        <v>0.2304908898377627</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2629343361300973</v>
+        <v>0.3058085859713558</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2711568246836774</v>
+        <v>0.2629343361300973</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2874301316814534</v>
+        <v>0.2711568246836774</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2641909552021988</v>
+        <v>0.2874301316814534</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2942339625087241</v>
+        <v>0.2641909552021988</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3786358856679766</v>
+        <v>0.2945762049957192</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4671234250841378</v>
+        <v>0.3788839282530292</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5205000244558715</v>
+        <v>0.4673552062027773</v>
       </c>
     </row>
     <row r="27">
@@ -833,41 +833,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6593593140641935</v>
+        <v>0.5208840916754829</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.05471005666683972</v>
+        <v>0.6593297415139008</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.07935048025074752</v>
+        <v>0.4638132248251325</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1143989979055139</v>
+        <v>0.05471005666683972</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2295612423548797</v>
+        <v>0.07935048025074752</v>
       </c>
     </row>
     <row r="32">
@@ -908,11 +908,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1962236443161606</v>
+        <v>0.1143989979055139</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1803191835444803</v>
+        <v>0.2295612423548797</v>
       </c>
     </row>
     <row r="34">
@@ -938,11 +938,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1695936447013143</v>
+        <v>0.1962236443161606</v>
       </c>
     </row>
     <row r="35">
@@ -953,11 +953,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2355445329378827</v>
+        <v>0.1803191835444803</v>
       </c>
     </row>
     <row r="36">
@@ -968,11 +968,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2847721822541966</v>
+        <v>0.1695936447013143</v>
       </c>
     </row>
     <row r="37">
@@ -983,11 +983,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4080592488186103</v>
+        <v>0.2355445329378827</v>
       </c>
     </row>
     <row r="38">
@@ -998,11 +998,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4743751295997958</v>
+        <v>0.2847730714586814</v>
       </c>
     </row>
     <row r="39">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5864711142019771</v>
+        <v>0.4080708035880027</v>
       </c>
     </row>
     <row r="40">
@@ -1028,11 +1028,56 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4743872365268602</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5865894898317242</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>0.7801191739843675</v>
+      <c r="C42" t="n">
+        <v>0.7808844792040834</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5859742493884902</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0741855049307536</v>
+        <v>0.06072676737724855</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1185052370828249</v>
+        <v>0.08943893963504915</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1620508525544782</v>
+        <v>0.1334090148888231</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2069129556868644</v>
+        <v>0.1676458654000764</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1799165942171642</v>
+        <v>0.1764930039625781</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2083987557804695</v>
+        <v>0.2169601972114539</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1898280278021307</v>
+        <v>0.2002337577397597</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1921416371808035</v>
+        <v>0.2005158181554662</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.208884759196603</v>
+        <v>0.2222691216053256</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2823868412390541</v>
+        <v>0.2852834459338497</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.314663811617325</v>
+        <v>0.3208952380823946</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3838960162792354</v>
+        <v>0.3930933767943192</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4666623480280963</v>
+        <v>0.4847235668517124</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3716292420014026</v>
+        <v>0.7094182127464319</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08892548345040661</v>
+        <v>0.08555299016961894</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.134174907430617</v>
+        <v>0.1145107702291279</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2304908898377627</v>
+        <v>0.1985598520837476</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3058085859713558</v>
+        <v>0.2624276034285558</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2629343361300973</v>
+        <v>0.2610714115743212</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2711568246836774</v>
+        <v>0.2792387315653621</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2874301316814534</v>
+        <v>0.2931935588784764</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2641909552021988</v>
+        <v>0.2705306887847534</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2945762049957192</v>
+        <v>0.3096114273698124</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3788839282530292</v>
+        <v>0.3806659143632873</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4673552062027773</v>
+        <v>0.468502703203439</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5208840916754829</v>
+        <v>0.5296433334641457</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6593297415139008</v>
+        <v>0.67243917541257</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4638132248251325</v>
+        <v>0.8949639471001851</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.05471005666683972</v>
+        <v>0.04991793491499974</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.07935048025074752</v>
+        <v>0.06203764819603896</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1143989979055139</v>
+        <v>0.1038756479498138</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2295612423548797</v>
+        <v>0.2136148753027318</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1962236443161606</v>
+        <v>0.1940082160738814</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1803191835444803</v>
+        <v>0.1815584906478788</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.1695936447013143</v>
+        <v>0.1731002802120558</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2355445329378827</v>
+        <v>0.2406581184562085</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2847730714586814</v>
+        <v>0.2878955832071318</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4080708035880027</v>
+        <v>0.408218505485928</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4743872365268602</v>
+        <v>0.4714796346991122</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5865894898317242</v>
+        <v>0.5929192240979314</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7808844792040834</v>
+        <v>0.7951875975015328</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5859742493884902</v>
+        <v>1.115965900707341</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2852834459338497</v>
+        <v>0.2852595090894133</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208952380823946</v>
+        <v>0.3208859072236224</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3930933767943192</v>
+        <v>0.3931576753667247</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4847235668517124</v>
+        <v>0.4848807445208924</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7094182127464319</v>
+        <v>0.7096943944223548</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08555299016961894</v>
+        <v>0.08553551611116926</v>
       </c>
     </row>
     <row r="17">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2624276034285558</v>
+        <v>0.262412414008898</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2610714115743212</v>
+        <v>0.2610859656724132</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2792387315653621</v>
+        <v>0.2791649915390694</v>
       </c>
     </row>
     <row r="22">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2705306887847534</v>
+        <v>0.2704396878242383</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3096114273698124</v>
+        <v>0.3095213061567809</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3806659143632873</v>
+        <v>0.3806663883880143</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.468502703203439</v>
+        <v>0.4683906102272462</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5296433334641457</v>
+        <v>0.5298804267175545</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.67243917541257</v>
+        <v>0.6730477317285621</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8949639471001851</v>
+        <v>0.8962834369238581</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.408218505485928</v>
+        <v>0.4082018033896171</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4714796346991122</v>
+        <v>0.4714555391234632</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5929192240979314</v>
+        <v>0.5928601454126512</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7951875975015328</v>
+        <v>0.795100722874016</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.115965900707341</v>
+        <v>1.115630866990805</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06072676737724855</v>
+        <v>0.06073121801797391</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2005158181554662</v>
+        <v>0.2005179392752673</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2852595090894133</v>
+        <v>0.285222808477081</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208859072236224</v>
+        <v>0.3208547203999406</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3931576753667247</v>
+        <v>0.3931393166252674</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4848807445208924</v>
+        <v>0.4849210000749511</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7096943944223548</v>
+        <v>0.7099338484235772</v>
       </c>
     </row>
     <row r="16">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2610859656724132</v>
+        <v>0.2610714115743212</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2791649915390694</v>
+        <v>0.2791059995180352</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2931935588784764</v>
+        <v>0.2932086859839804</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2704396878242383</v>
+        <v>0.2704093541707333</v>
       </c>
     </row>
     <row r="24">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3806663883880143</v>
+        <v>0.3803980958261134</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4683906102272462</v>
+        <v>0.4681799126862656</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5298804267175545</v>
+        <v>0.5296380979668618</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6730477317285621</v>
+        <v>0.6727889730405012</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8962834369238581</v>
+        <v>0.8952799517665342</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4082018033896171</v>
+        <v>0.4085734266615425</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4714555391234632</v>
+        <v>0.4722093450772895</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5928601454126512</v>
+        <v>0.5937364546075383</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.795100722874016</v>
+        <v>0.7965825998388594</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.115630866990805</v>
+        <v>1.117902719255415</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.285222808477081</v>
+        <v>0.2851852752659121</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208547203999406</v>
+        <v>0.3208093403063283</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3931393166252674</v>
+        <v>0.3931128886433924</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4849210000749511</v>
+        <v>0.4849149931544151</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7099338484235772</v>
+        <v>0.7102155897698574</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08553551611116926</v>
+        <v>0.08551804205271958</v>
       </c>
     </row>
     <row r="17">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2610714115743212</v>
+        <v>0.2610423033781372</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2791059995180352</v>
+        <v>0.2790912515127766</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2932086859839804</v>
+        <v>0.2931633046674684</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2704093541707333</v>
+        <v>0.2703335200369706</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3095213061567809</v>
+        <v>0.3094762455502651</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3803980958261134</v>
+        <v>0.3803394152459666</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4681799126862656</v>
+        <v>0.4680472004579035</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5296380979668618</v>
+        <v>0.5295698471865045</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6727889730405012</v>
+        <v>0.6726636444909168</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8952799517665342</v>
+        <v>0.8953294672955754</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4085734266615425</v>
+        <v>0.4079268753304963</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4722093450772895</v>
+        <v>0.4718216724912312</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5937364546075383</v>
+        <v>0.5929161629631476</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7965825998388594</v>
+        <v>0.7958615200955035</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.117902719255415</v>
+        <v>1.116141305656561</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1676458654000764</v>
+        <v>0.1676438448644025</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2851852752659121</v>
+        <v>0.2851819010931552</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208093403063283</v>
+        <v>0.3208252090372473</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3931128886433924</v>
+        <v>0.3931442773006805</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4849149931544151</v>
+        <v>0.484952289178693</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7102155897698574</v>
+        <v>0.7106999136905319</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08551804205271958</v>
+        <v>0.08555299016961894</v>
       </c>
     </row>
     <row r="17">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.262412414008898</v>
+        <v>0.2624276034285558</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2610423033781372</v>
+        <v>0.2611005197705051</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2790912515127766</v>
+        <v>0.2791944875495865</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2931633046674684</v>
+        <v>0.2931935588784764</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2703335200369706</v>
+        <v>0.2704700214777433</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3094762455502651</v>
+        <v>0.3095813869654686</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3803394152459666</v>
+        <v>0.3805511061728185</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4680472004579035</v>
+        <v>0.4683602856797615</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5295698471865045</v>
+        <v>0.529654981713839</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6726636444909168</v>
+        <v>0.6728782504711722</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8953294672955754</v>
+        <v>0.8957231133216164</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4079268753304963</v>
+        <v>0.4081606963592821</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4718216724912312</v>
+        <v>0.4714239174177723</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5929161629631476</v>
+        <v>0.5931981605872163</v>
       </c>
     </row>
     <row r="42">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.116141305656561</v>
+        <v>1.117163752370061</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2851819010931552</v>
+        <v>0.2852050191086959</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208252090372473</v>
+        <v>0.3208494882599194</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3931442773006805</v>
+        <v>0.3931664327541349</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.484952289178693</v>
+        <v>0.484939742008046</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7106999136905319</v>
+        <v>0.7108712489137805</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3805511061728185</v>
+        <v>0.3804906446419313</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4683602856797615</v>
+        <v>0.4682613908691151</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.529654981713839</v>
+        <v>0.5295017421403824</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6728782504711722</v>
+        <v>0.6726807031988482</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8957231133216164</v>
+        <v>0.8955808589013844</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4081606963592821</v>
+        <v>0.408408748827045</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4714239174177723</v>
+        <v>0.4717041430708067</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5931981605872163</v>
+        <v>0.5935513637029625</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7958615200955035</v>
+        <v>0.7962775543945708</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.117163752370061</v>
+        <v>1.118236834974257</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06072676737724855</v>
+        <v>0.06073121801797391</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1676458654000764</v>
+        <v>0.1676438448644025</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2005158181554662</v>
+        <v>0.2005179392752673</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2852834459338497</v>
+        <v>0.2851884193156192</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208952380823946</v>
+        <v>0.3208200995130061</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3930933767943192</v>
+        <v>0.393130356871968</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4847235668517124</v>
+        <v>0.4848678530572135</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7094182127464319</v>
+        <v>0.7111381600203867</v>
       </c>
     </row>
     <row r="16">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2610714115743212</v>
+        <v>0.2611005197705051</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2792387315653621</v>
+        <v>0.2791944875495865</v>
       </c>
     </row>
     <row r="22">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2705306887847534</v>
+        <v>0.2704700214777433</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3096114273698124</v>
+        <v>0.3095813869654686</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3806659143632873</v>
+        <v>0.3806041412120524</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.468502703203439</v>
+        <v>0.4684100683600916</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5296433334641457</v>
+        <v>0.5296929175469494</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.67243917541257</v>
+        <v>0.672914605701424</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8949639471001851</v>
+        <v>0.8966959645717196</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.408218505485928</v>
+        <v>0.4084126069445888</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4714796346991122</v>
+        <v>0.4717071580602482</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5929192240979314</v>
+        <v>0.5935384116612841</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7951875975015328</v>
+        <v>0.7962170572790042</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.115965900707341</v>
+        <v>1.11824356874458</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2851884193156192</v>
+        <v>0.2851800292795054</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208200995130061</v>
+        <v>0.3208035081988058</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.393130356871968</v>
+        <v>0.3930853322597042</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4848678530572135</v>
+        <v>0.4848271912888483</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7111381600203867</v>
+        <v>0.7111900941776225</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3806041412120524</v>
+        <v>0.3806173012689518</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4684100683600916</v>
+        <v>0.4684387638990991</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5296929175469494</v>
+        <v>0.5294085699366377</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.672914605701424</v>
+        <v>0.67267688884529</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8966959645717196</v>
+        <v>0.8964825877140811</v>
       </c>
     </row>
     <row r="30">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4084126069445888</v>
+        <v>0.4083701716603065</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4717071580602482</v>
+        <v>0.471631794884904</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5935384116612841</v>
+        <v>0.593323860095231</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7962170572790042</v>
+        <v>0.7959969253859217</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.11824356874458</v>
+        <v>1.117923804191763</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06073121801797391</v>
+        <v>0.001474320658766841</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08943893963504915</v>
+        <v>0.2166497206675002</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1334090148888231</v>
+        <v>0.1997052926159623</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1676438448644025</v>
+        <v>0.2000173550022124</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1764930039625781</v>
+        <v>0.2218892578236288</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2169601972114539</v>
+        <v>0.2849038916940809</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2002337577397597</v>
+        <v>0.3176212688798147</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2005179392752673</v>
+        <v>0.389362858101849</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2222691216053256</v>
+        <v>0.4803159880483661</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2851800292795054</v>
+        <v>0.7045059749555662</v>
       </c>
     </row>
     <row r="12">
@@ -608,56 +608,56 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3208035081988058</v>
+        <v>0.7406584305647893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3930853322597042</v>
+        <v>0.001702829476764164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4848271912888483</v>
+        <v>0.2786930553707959</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7111900941776225</v>
+        <v>0.2922254241262205</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08555299016961894</v>
+        <v>0.269560011872592</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1145107702291279</v>
+        <v>0.3086050738242937</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1985598520837476</v>
+        <v>0.3800713524743992</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2624276034285558</v>
+        <v>0.468542465255369</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2611005197705051</v>
+        <v>0.5294632190918449</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2791944875495865</v>
+        <v>0.6728854456429895</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2931935588784764</v>
+        <v>0.8967265550752545</v>
       </c>
     </row>
     <row r="23">
@@ -773,101 +773,101 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2704700214777433</v>
+        <v>1.008284356164113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3095813869654686</v>
+        <v>0.0003164897488970332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3806173012689518</v>
+        <v>0.1812486638720291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4684387638990991</v>
+        <v>0.1731002802120558</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5294085699366377</v>
+        <v>0.2406581184562085</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.67267688884529</v>
+        <v>0.2878955832071318</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8964825877140811</v>
+        <v>0.4083701716603065</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.04991793491499974</v>
+        <v>0.4713832671714768</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.06203764819603896</v>
+        <v>0.5925616849552231</v>
       </c>
     </row>
     <row r="32">
@@ -908,11 +908,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1038756479498138</v>
+        <v>0.7949149714042992</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2136148753027318</v>
+        <v>1.115654925197335</v>
       </c>
     </row>
     <row r="34">
@@ -938,146 +938,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1940082160738814</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1815584906478788</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1731002802120558</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2406581184562085</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2878955832071318</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.4083701716603065</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.471631794884904</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.593323860095231</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.7959969253859217</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1.117923804191763</v>
+        <v>1.197113711052504</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.5.xlsx
+++ b/Data/g18.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001474320658766841</v>
+        <v>0.2166497206675002</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2166497206675002</v>
+        <v>0.1997031955321377</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1997052926159623</v>
+        <v>0.2000173550022124</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2000173550022124</v>
+        <v>0.2218892578236288</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2218892578236288</v>
+        <v>0.2849038916940809</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2849038916940809</v>
+        <v>0.3175325379261067</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3176212688798147</v>
+        <v>0.3892553809515489</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.389362858101849</v>
+        <v>0.480189775225401</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4803159880483661</v>
+        <v>0.7044517170836323</v>
       </c>
     </row>
     <row r="11">
@@ -593,26 +593,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7045059749555662</v>
+        <v>0.740784122293602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7406584305647893</v>
+        <v>0.2786930553707959</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001702829476764164</v>
+        <v>0.2922254241262205</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2786930553707959</v>
+        <v>0.269560011872592</v>
       </c>
     </row>
     <row r="15">
@@ -653,11 +653,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2922254241262205</v>
+        <v>0.3086050738242937</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.269560011872592</v>
+        <v>0.3800713524743992</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3086050738242937</v>
+        <v>0.468637543760702</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3800713524743992</v>
+        <v>0.5295549002286808</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.468542465255369</v>
+        <v>0.6729915024147284</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5294632190918449</v>
+        <v>0.8970330678180559</v>
       </c>
     </row>
     <row r="21">
@@ -743,41 +743,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6728854456429895</v>
+        <v>1.008947005262028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8967265550752545</v>
+        <v>0.1812486638720291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.008284356164113</v>
+        <v>0.1731002802120558</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003164897488970332</v>
+        <v>0.2406581184562085</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1812486638720291</v>
+        <v>0.2878955832071318</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1731002802120558</v>
+        <v>0.4083701716603065</v>
       </c>
     </row>
     <row r="27">
@@ -833,11 +833,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2406581184562085</v>
+        <v>0.4713350981788455</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2878955832071318</v>
+        <v>0.5924473086143022</v>
       </c>
     </row>
     <row r="29">
@@ -863,11 +863,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4083701716603065</v>
+        <v>0.7948040443998168</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4713832671714768</v>
+        <v>1.115440423224473</v>
       </c>
     </row>
     <row r="31">
@@ -893,56 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5925616849552231</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.7949149714042992</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1.115654925197335</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1.197113711052504</v>
+        <v>1.197315040200634</v>
       </c>
     </row>
   </sheetData>
